--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H2">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I2">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J2">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.051909333333333</v>
+        <v>0.04647766666666667</v>
       </c>
       <c r="N2">
-        <v>3.155728</v>
+        <v>0.139433</v>
       </c>
       <c r="O2">
-        <v>0.6689916625345733</v>
+        <v>0.1662164546338858</v>
       </c>
       <c r="P2">
-        <v>0.6689916625345734</v>
+        <v>0.1662164546338858</v>
       </c>
       <c r="Q2">
-        <v>5.503294045477333</v>
+        <v>0.0005273665911111112</v>
       </c>
       <c r="R2">
-        <v>49.529646409296</v>
+        <v>0.00474629932</v>
       </c>
       <c r="S2">
-        <v>0.2425089334004344</v>
+        <v>0.0002010405312741575</v>
       </c>
       <c r="T2">
-        <v>0.2425089334004344</v>
+        <v>0.0002010405312741575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H3">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I3">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J3">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.37849</v>
       </c>
       <c r="O3">
-        <v>0.08023716060215286</v>
+        <v>0.4511935188540693</v>
       </c>
       <c r="P3">
-        <v>0.08023716060215287</v>
+        <v>0.4511935188540693</v>
       </c>
       <c r="Q3">
-        <v>0.6600511081033332</v>
+        <v>0.001431533288888889</v>
       </c>
       <c r="R3">
-        <v>5.94045997293</v>
+        <v>0.0128837996</v>
       </c>
       <c r="S3">
-        <v>0.02908590544011727</v>
+        <v>0.0005457232554843965</v>
       </c>
       <c r="T3">
-        <v>0.02908590544011727</v>
+        <v>0.0005457232554843965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H4">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I4">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J4">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3943076666666667</v>
+        <v>0.1069803333333333</v>
       </c>
       <c r="N4">
-        <v>1.182923</v>
+        <v>0.320941</v>
       </c>
       <c r="O4">
-        <v>0.2507711768632737</v>
+        <v>0.3825900265120449</v>
       </c>
       <c r="P4">
-        <v>0.2507711768632738</v>
+        <v>0.3825900265120449</v>
       </c>
       <c r="Q4">
-        <v>2.062906911545667</v>
+        <v>0.001213870182222222</v>
       </c>
       <c r="R4">
-        <v>18.566162203911</v>
+        <v>0.01092483164</v>
       </c>
       <c r="S4">
-        <v>0.09090434759422929</v>
+        <v>0.0004627466177135928</v>
       </c>
       <c r="T4">
-        <v>0.09090434759422931</v>
+        <v>0.0004627466177135928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.950836</v>
       </c>
       <c r="I5">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J5">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.051909333333333</v>
+        <v>0.04647766666666667</v>
       </c>
       <c r="N5">
-        <v>3.155728</v>
+        <v>0.139433</v>
       </c>
       <c r="O5">
-        <v>0.6689916625345733</v>
+        <v>0.1662164546338858</v>
       </c>
       <c r="P5">
-        <v>0.6689916625345734</v>
+        <v>0.1662164546338858</v>
       </c>
       <c r="Q5">
-        <v>8.748672420956446</v>
+        <v>0.3865522128875556</v>
       </c>
       <c r="R5">
-        <v>78.738051788608</v>
+        <v>3.478969915988</v>
       </c>
       <c r="S5">
-        <v>0.3855202356885733</v>
+        <v>0.1473598509158159</v>
       </c>
       <c r="T5">
-        <v>0.3855202356885733</v>
+        <v>0.1473598509158159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.950836</v>
       </c>
       <c r="I6">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J6">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.37849</v>
       </c>
       <c r="O6">
-        <v>0.08023716060215286</v>
+        <v>0.4511935188540693</v>
       </c>
       <c r="P6">
-        <v>0.08023716060215287</v>
+        <v>0.4511935188540693</v>
       </c>
       <c r="Q6">
         <v>1.049293546404445</v>
@@ -818,10 +818,10 @@
         <v>9.443641917640001</v>
       </c>
       <c r="S6">
-        <v>0.0462383177529141</v>
+        <v>0.4000073868677227</v>
       </c>
       <c r="T6">
-        <v>0.0462383177529141</v>
+        <v>0.4000073868677226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.950836</v>
       </c>
       <c r="I7">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J7">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3943076666666667</v>
+        <v>0.1069803333333333</v>
       </c>
       <c r="N7">
-        <v>1.182923</v>
+        <v>0.320941</v>
       </c>
       <c r="O7">
-        <v>0.2507711768632737</v>
+        <v>0.3825900265120449</v>
       </c>
       <c r="P7">
-        <v>0.2507711768632738</v>
+        <v>0.3825900265120449</v>
       </c>
       <c r="Q7">
-        <v>3.27943530818089</v>
+        <v>0.8897495840751114</v>
       </c>
       <c r="R7">
-        <v>29.514917773628</v>
+        <v>8.007746256676002</v>
       </c>
       <c r="S7">
-        <v>0.144512059899153</v>
+        <v>0.3391866911905567</v>
       </c>
       <c r="T7">
-        <v>0.144512059899153</v>
+        <v>0.3391866911905567</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H8">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I8">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J8">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.051909333333333</v>
+        <v>0.04647766666666667</v>
       </c>
       <c r="N8">
-        <v>3.155728</v>
+        <v>0.139433</v>
       </c>
       <c r="O8">
-        <v>0.6689916625345733</v>
+        <v>0.1662164546338858</v>
       </c>
       <c r="P8">
-        <v>0.6689916625345734</v>
+        <v>0.1662164546338858</v>
       </c>
       <c r="Q8">
-        <v>0.9295684208657777</v>
+        <v>0.04893700141322223</v>
       </c>
       <c r="R8">
-        <v>8.366115787791999</v>
+        <v>0.440433012719</v>
       </c>
       <c r="S8">
-        <v>0.04096249344556567</v>
+        <v>0.01865556318679571</v>
       </c>
       <c r="T8">
-        <v>0.04096249344556568</v>
+        <v>0.01865556318679571</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H9">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I9">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J9">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.37849</v>
       </c>
       <c r="O9">
-        <v>0.08023716060215286</v>
+        <v>0.4511935188540693</v>
       </c>
       <c r="P9">
-        <v>0.08023716060215287</v>
+        <v>0.4511935188540693</v>
       </c>
       <c r="Q9">
-        <v>0.1114900750677778</v>
+        <v>0.1328391820077778</v>
       </c>
       <c r="R9">
-        <v>1.00341067561</v>
+        <v>1.19555263807</v>
       </c>
       <c r="S9">
-        <v>0.004912937409121492</v>
+        <v>0.0506404087308622</v>
       </c>
       <c r="T9">
-        <v>0.004912937409121493</v>
+        <v>0.0506404087308622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H10">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I10">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J10">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3943076666666667</v>
+        <v>0.1069803333333333</v>
       </c>
       <c r="N10">
-        <v>1.182923</v>
+        <v>0.320941</v>
       </c>
       <c r="O10">
-        <v>0.2507711768632737</v>
+        <v>0.3825900265120449</v>
       </c>
       <c r="P10">
-        <v>0.2507711768632738</v>
+        <v>0.3825900265120449</v>
       </c>
       <c r="Q10">
-        <v>0.3484482392385556</v>
+        <v>0.1126411263514445</v>
       </c>
       <c r="R10">
-        <v>3.136034153147</v>
+        <v>1.013770137163</v>
       </c>
       <c r="S10">
-        <v>0.01535476936989147</v>
+        <v>0.0429405887037746</v>
       </c>
       <c r="T10">
-        <v>0.01535476936989148</v>
+        <v>0.0429405887037746</v>
       </c>
     </row>
   </sheetData>
